--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_3.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Họ tên</t>
   </si>
@@ -59,7 +59,10 @@
     <t>haupham@gmail.com</t>
   </si>
   <si>
-    <t>Chưa Nộp</t>
+    <t>01:01:28 15/06/2022</t>
+  </si>
+  <si>
+    <t>Nộp muộn</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -654,13 +657,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -711,42 +714,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_3.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Họ tên</t>
   </si>
@@ -44,13 +44,13 @@
     <t>haupham19092k@gmail.com</t>
   </si>
   <si>
-    <t>01:24:47 14/06/2022</t>
+    <t>23:51:08 16/06/2022</t>
   </si>
   <si>
     <t>00:22:00 15/06/2022</t>
   </si>
   <si>
-    <t>Đã nộp</t>
+    <t>Nộp muộn</t>
   </si>
   <si>
     <t/>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>01:01:28 15/06/2022</t>
-  </si>
-  <si>
-    <t>Nộp muộn</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -93,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,6 +122,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -190,7 +192,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +202,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -642,7 +645,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -663,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -713,43 +716,43 @@
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" ht="12.75">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75">
+      <c r="B2" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75">
-      <c r="B2" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75">
+      <c r="B5" s="9" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75">
-      <c r="B5" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75">
+      <c r="B8" s="9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75">
-      <c r="B8" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75">
+      <c r="B11" s="9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75">
-      <c r="B11" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
